--- a/상민 목록.xlsx
+++ b/상민 목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\pythonUSB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{162E9F5B-1783-48CB-9E6E-4DB4D7EBD2E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{74C27D4C-9A20-4459-B004-DC79D716F1A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25128" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>작업</t>
   </si>
@@ -66,6 +66,13 @@
   <si>
     <t>USB 자동 동기화 숙지</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어찌 됬든 완성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
   </si>
 </sst>
 </file>
@@ -244,20 +251,20 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -274,44 +281,37 @@
     <cellStyle name="통화 [0]" xfId="6" builtinId="7" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -458,20 +458,20 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="할 일 목록" defaultPivotStyle="PivotStyleLight2">
     <tableStyle name="할 일 목록 피벗" table="0" count="11" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="17"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="16"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="14"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="13"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="12"/>
-      <tableStyleElement type="pageFieldValues" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="totalRow" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="16"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="15"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="14"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="13"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="12"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="11"/>
+      <tableStyleElement type="pageFieldValues" dxfId="10"/>
     </tableStyle>
     <tableStyle name="할 일 목록" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -492,16 +492,16 @@
     <sortCondition descending="1" ref="C2:C6"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="작업" dataDxfId="9" dataCellStyle="표준"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="우선 순위 " dataDxfId="8" dataCellStyle="표준"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="상태 " dataDxfId="7" dataCellStyle="표준"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="시작 날짜 " dataDxfId="6" dataCellStyle="날짜"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="기한 " dataDxfId="5" dataCellStyle="날짜"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="완료율" dataDxfId="4" dataCellStyle="백분율"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="완료 여부" dataDxfId="3" dataCellStyle="완료">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="작업" dataDxfId="7" dataCellStyle="표준"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="우선 순위 " dataDxfId="6" dataCellStyle="표준"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="상태 " dataDxfId="5" dataCellStyle="표준"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="시작 날짜 " dataDxfId="4" dataCellStyle="날짜"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="기한 " dataDxfId="3" dataCellStyle="날짜"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="완료율" dataDxfId="2" dataCellStyle="백분율"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="완료 여부" dataDxfId="1" dataCellStyle="완료">
       <calculatedColumnFormula>--(할일목록[[#This Row],[완료율]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="메모" dataDxfId="2" dataCellStyle="표준"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="메모" dataDxfId="0" dataCellStyle="표준"/>
   </tableColumns>
   <tableStyleInfo name="할 일 목록" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -746,7 +746,7 @@
   <dimension ref="B1:I7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -762,16 +762,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="2:9" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
@@ -807,24 +807,25 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5">
-        <f ca="1">TODAY()</f>
-        <v>43309</v>
+        <v>43308</v>
       </c>
       <c r="F3" s="5">
-        <f ca="1">할일목록[[#This Row],[시작 날짜 ]]+2</f>
-        <v>43311</v>
+        <f>할일목록[[#This Row],[시작 날짜 ]]+2</f>
+        <v>43310</v>
       </c>
       <c r="G3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="6">
         <f>--(할일목록[[#This Row],[완료율]]&gt;=1)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -837,12 +838,11 @@
         <v>4</v>
       </c>
       <c r="E4" s="5">
-        <f ca="1">TODAY()</f>
-        <v>43309</v>
+        <v>43311</v>
       </c>
       <c r="F4" s="5">
-        <f ca="1">할일목록[[#This Row],[시작 날짜 ]]+7</f>
-        <v>43316</v>
+        <f>할일목록[[#This Row],[시작 날짜 ]]+7</f>
+        <v>43318</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -874,14 +874,14 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -889,7 +889,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B3:I7">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>AND($G3=0,$G3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
